--- a/posesiones/1381279.xlsx
+++ b/posesiones/1381279.xlsx
@@ -1946,10 +1946,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2140,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>20</v>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2243,7 +2243,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>21</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2346,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>10</v>
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2446,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13">
         <v>23</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2546,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R15">
         <v>19</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2649,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R17">
         <v>17</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2752,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R19">
         <v>9</v>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2899,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3090,7 +3090,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R26">
         <v>9</v>
@@ -3143,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R27">
         <v>15</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3246,7 +3246,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R29">
         <v>19</v>
@@ -3299,7 +3299,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R30">
         <v>19</v>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3399,7 +3399,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R32">
         <v>21</v>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3496,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3640,7 +3640,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R37">
         <v>12</v>
@@ -3693,7 +3693,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R38">
         <v>22</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3793,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R40">
         <v>5</v>
@@ -3843,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3893,7 +3893,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R42">
         <v>21</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R44">
         <v>7</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4184,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4231,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4281,7 +4281,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R50">
         <v>33</v>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4384,7 +4384,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R52">
         <v>7</v>
@@ -4434,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4534,7 +4534,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R55">
         <v>18</v>
@@ -4584,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R57">
         <v>19</v>
@@ -4687,7 +4687,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R58">
         <v>12</v>
@@ -4740,7 +4740,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R59">
         <v>22</v>
@@ -4790,7 +4790,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4840,7 +4840,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R61">
         <v>25</v>
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4940,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4987,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5081,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5128,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5175,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5225,7 +5225,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R69">
         <v>15</v>
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R70">
         <v>24</v>
@@ -5331,7 +5331,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5378,7 +5378,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5425,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5522,7 +5522,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R75">
         <v>7</v>
@@ -5575,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5622,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5669,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5716,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5763,7 +5763,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5816,7 +5816,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R81">
         <v>23</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5960,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -6010,7 +6010,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R85">
         <v>11</v>
@@ -6063,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6113,7 +6113,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R87">
         <v>4</v>
@@ -6163,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6210,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6260,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6307,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6360,7 +6360,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R92">
         <v>3</v>
@@ -6410,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6457,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6507,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6557,7 +6557,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R96">
         <v>25</v>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6660,7 +6660,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R98">
         <v>13</v>
@@ -6710,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6760,7 +6760,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R100">
         <v>15</v>
@@ -6813,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6863,7 +6863,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R102">
         <v>14</v>
@@ -6913,7 +6913,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6957,7 +6957,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -7004,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7098,7 +7098,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7145,7 +7145,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7192,7 +7192,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7239,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7286,7 +7286,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7333,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7383,7 +7383,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R113">
         <v>7</v>
@@ -7433,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7480,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7530,7 +7530,7 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R116">
         <v>2</v>
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7630,7 +7630,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R118">
         <v>20</v>
@@ -7683,7 +7683,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7730,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7777,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7824,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7918,7 +7918,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7968,7 +7968,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R125">
         <v>6</v>
@@ -8018,7 +8018,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8065,7 +8065,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8112,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8206,7 +8206,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8253,7 +8253,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8347,7 +8347,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8441,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8491,7 +8491,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R136">
         <v>5</v>
@@ -8547,7 +8547,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R137">
         <v>0</v>
@@ -8591,10 +8591,10 @@
         <v>1</v>
       </c>
       <c r="P138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q138">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8641,7 +8641,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8688,7 +8688,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8735,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8782,7 +8782,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8829,7 +8829,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8876,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8923,7 +8923,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8970,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9011,10 +9011,10 @@
         <v>1</v>
       </c>
       <c r="P147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q147">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9061,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9111,7 +9111,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R149">
         <v>22</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9214,7 +9214,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R151">
         <v>15</v>
@@ -9267,7 +9267,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9317,7 +9317,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R153">
         <v>11</v>
@@ -9367,7 +9367,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9417,7 +9417,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R155">
         <v>13</v>
@@ -9467,7 +9467,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9517,7 +9517,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R157">
         <v>5</v>
@@ -9564,7 +9564,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9611,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9708,7 +9708,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R161">
         <v>17</v>
@@ -9758,7 +9758,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9805,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9852,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9899,7 +9899,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9946,7 +9946,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9993,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10040,7 +10040,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10090,7 +10090,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R169">
         <v>22</v>
@@ -10143,7 +10143,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R170">
         <v>17</v>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10243,7 +10243,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R172">
         <v>20</v>
@@ -10293,7 +10293,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10343,7 +10343,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R174">
         <v>24</v>
@@ -10396,7 +10396,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10446,7 +10446,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R176">
         <v>10</v>
@@ -10499,7 +10499,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10546,7 +10546,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10593,7 +10593,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10737,7 +10737,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R182">
         <v>13</v>
@@ -10790,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10840,7 +10840,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R184">
         <v>13</v>
@@ -10893,7 +10893,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10943,7 +10943,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R186">
         <v>14</v>
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11040,7 +11040,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11087,7 +11087,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11134,7 +11134,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11181,7 +11181,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11228,7 +11228,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11275,7 +11275,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11322,7 +11322,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11369,7 +11369,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11416,7 +11416,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11466,7 +11466,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R197">
         <v>26</v>
@@ -11519,7 +11519,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R198">
         <v>17</v>
@@ -11572,7 +11572,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R199">
         <v>13</v>
@@ -11616,7 +11616,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11666,7 +11666,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R201">
         <v>17</v>
@@ -11719,7 +11719,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11769,7 +11769,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R203">
         <v>23</v>
@@ -11819,7 +11819,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11869,7 +11869,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R205">
         <v>12</v>
@@ -11919,7 +11919,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11966,7 +11966,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12013,7 +12013,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12060,7 +12060,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12107,7 +12107,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12157,7 +12157,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R211">
         <v>6</v>
@@ -12207,7 +12207,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12257,7 +12257,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R213">
         <v>7</v>
@@ -12304,7 +12304,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12351,7 +12351,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12398,7 +12398,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12448,7 +12448,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R217">
         <v>22</v>
@@ -12498,7 +12498,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12548,7 +12548,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12598,7 +12598,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R220">
         <v>31</v>
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12701,7 +12701,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R222">
         <v>12</v>
@@ -12754,7 +12754,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12804,7 +12804,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R224">
         <v>6</v>
@@ -12857,7 +12857,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R225">
         <v>12</v>
@@ -12907,7 +12907,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12957,7 +12957,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R227">
         <v>13</v>
@@ -13010,7 +13010,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R228">
         <v>27</v>
@@ -13063,7 +13063,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13110,7 +13110,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13157,7 +13157,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13204,7 +13204,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13251,7 +13251,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13298,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13345,7 +13345,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13392,7 +13392,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13442,7 +13442,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13492,7 +13492,7 @@
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R238">
         <v>32</v>
@@ -13545,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13595,7 +13595,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R240">
         <v>15</v>
@@ -13645,7 +13645,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13692,7 +13692,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13786,7 +13786,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13833,7 +13833,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13883,7 +13883,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R246">
         <v>29</v>
@@ -13933,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13980,7 +13980,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14027,7 +14027,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14074,7 +14074,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14124,7 +14124,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R251">
         <v>4</v>
@@ -14174,7 +14174,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14221,7 +14221,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14271,7 +14271,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R254">
         <v>10</v>
@@ -14321,7 +14321,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14371,7 +14371,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R256">
         <v>6</v>
@@ -14424,7 +14424,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14468,7 +14468,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14518,7 +14518,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R259">
         <v>21</v>
@@ -14571,7 +14571,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14618,7 +14618,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14665,7 +14665,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14712,7 +14712,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14759,7 +14759,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14806,7 +14806,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14853,7 +14853,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14900,7 +14900,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14947,7 +14947,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14994,7 +14994,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15041,7 +15041,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15088,7 +15088,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15135,7 +15135,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15185,7 +15185,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R273">
         <v>22</v>
@@ -15241,7 +15241,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R274">
         <v>0</v>
@@ -15285,10 +15285,10 @@
         <v>1</v>
       </c>
       <c r="P275" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q275">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15335,7 +15335,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15382,7 +15382,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15429,7 +15429,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15476,7 +15476,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15523,7 +15523,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15570,7 +15570,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15611,10 +15611,10 @@
         <v>1</v>
       </c>
       <c r="P282" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q282">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15664,7 +15664,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R283">
         <v>19</v>
@@ -15714,7 +15714,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15764,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R285">
         <v>12</v>
@@ -15814,7 +15814,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15864,7 +15864,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R287">
         <v>3</v>
@@ -15914,7 +15914,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15961,7 +15961,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16011,7 +16011,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R290">
         <v>0</v>
@@ -16064,7 +16064,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16114,7 +16114,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R292">
         <v>17</v>
@@ -16164,7 +16164,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16211,7 +16211,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16261,7 +16261,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16308,7 +16308,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16355,7 +16355,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16405,7 +16405,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R298">
         <v>18</v>
@@ -16458,7 +16458,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16505,7 +16505,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16555,7 +16555,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R301">
         <v>8</v>
@@ -16608,7 +16608,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R302">
         <v>9</v>
@@ -16658,7 +16658,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16708,7 +16708,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R304">
         <v>8</v>
@@ -16758,7 +16758,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16805,7 +16805,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16852,7 +16852,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16899,7 +16899,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16949,7 +16949,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R309">
         <v>12</v>
@@ -17002,7 +17002,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R310">
         <v>14</v>
@@ -17055,7 +17055,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17105,7 +17105,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R312">
         <v>7</v>
@@ -17155,7 +17155,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17205,7 +17205,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R314">
         <v>13</v>
@@ -17258,7 +17258,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17308,7 +17308,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R316">
         <v>11</v>
@@ -17361,7 +17361,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17408,7 +17408,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17458,7 +17458,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17508,7 +17508,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R320">
         <v>20</v>
@@ -17558,7 +17558,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17608,7 +17608,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R322">
         <v>18</v>
@@ -17658,7 +17658,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17705,7 +17705,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17752,7 +17752,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17799,7 +17799,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17846,7 +17846,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17893,7 +17893,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17943,7 +17943,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R329">
         <v>10</v>
@@ -17996,7 +17996,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R330">
         <v>7</v>
@@ -18046,7 +18046,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18093,7 +18093,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18143,7 +18143,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18193,7 +18193,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R334">
         <v>30</v>
@@ -18243,7 +18243,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18293,7 +18293,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R336">
         <v>22</v>
@@ -18343,7 +18343,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18393,7 +18393,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R338">
         <v>24</v>
@@ -18446,7 +18446,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18496,7 +18496,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R340">
         <v>5</v>
@@ -18546,7 +18546,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18593,7 +18593,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18640,7 +18640,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18687,7 +18687,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18734,7 +18734,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18781,7 +18781,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18828,7 +18828,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18875,7 +18875,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18922,7 +18922,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18969,7 +18969,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19019,7 +19019,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R351">
         <v>20</v>
@@ -19072,7 +19072,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R352">
         <v>20</v>
@@ -19122,7 +19122,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19169,7 +19169,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19219,7 +19219,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R355">
         <v>0</v>
@@ -19272,7 +19272,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R356">
         <v>13</v>
@@ -19325,7 +19325,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19375,7 +19375,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R358">
         <v>5</v>
@@ -19425,7 +19425,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19472,7 +19472,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19519,7 +19519,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19569,7 +19569,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R362">
         <v>26</v>
@@ -19622,7 +19622,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19672,7 +19672,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R364">
         <v>20</v>
@@ -19719,7 +19719,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19766,7 +19766,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19813,7 +19813,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19863,7 +19863,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R368">
         <v>22</v>
@@ -19916,7 +19916,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19963,7 +19963,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20010,7 +20010,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20057,7 +20057,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20107,7 +20107,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R373">
         <v>8</v>
@@ -20157,7 +20157,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20204,7 +20204,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20254,7 +20254,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R376">
         <v>14</v>
@@ -20304,7 +20304,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20351,7 +20351,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20398,7 +20398,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20445,7 +20445,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20492,7 +20492,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20539,7 +20539,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20589,7 +20589,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R383">
         <v>3</v>
@@ -20642,7 +20642,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R384">
         <v>7</v>
@@ -20692,7 +20692,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20742,7 +20742,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20792,7 +20792,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R387">
         <v>12</v>
@@ -20845,7 +20845,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20895,7 +20895,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R389">
         <v>7</v>
@@ -20945,7 +20945,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20995,7 +20995,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R391">
         <v>22</v>
@@ -21048,7 +21048,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21098,7 +21098,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R393">
         <v>13</v>
@@ -21148,7 +21148,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21195,7 +21195,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21242,7 +21242,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21289,7 +21289,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21336,7 +21336,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21386,7 +21386,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R399">
         <v>0</v>
@@ -21439,7 +21439,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21489,7 +21489,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R401">
         <v>13</v>
@@ -21539,7 +21539,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21589,7 +21589,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21636,7 +21636,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21683,7 +21683,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21733,7 +21733,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21783,7 +21783,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R407">
         <v>12</v>
@@ -21833,7 +21833,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21883,7 +21883,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R409">
         <v>16</v>
@@ -21936,7 +21936,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R410">
         <v>19</v>
@@ -21986,7 +21986,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22036,7 +22036,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R412">
         <v>5</v>
@@ -22086,7 +22086,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22133,7 +22133,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22180,7 +22180,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22227,7 +22227,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22274,7 +22274,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22321,7 +22321,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22368,7 +22368,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22418,7 +22418,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R420">
         <v>19</v>
@@ -22468,7 +22468,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22515,7 +22515,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22565,7 +22565,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="R423">
         <v>15</v>
@@ -22621,7 +22621,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R424">
         <v>0</v>
@@ -22665,10 +22665,10 @@
         <v>1</v>
       </c>
       <c r="P425" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q425">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22715,7 +22715,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22809,7 +22809,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22856,7 +22856,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22903,7 +22903,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22950,7 +22950,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22991,10 +22991,10 @@
         <v>1</v>
       </c>
       <c r="P432" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q432">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23044,7 +23044,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R433">
         <v>8</v>
@@ -23094,7 +23094,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23141,7 +23141,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23191,7 +23191,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R436">
         <v>0</v>
@@ -23241,7 +23241,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23288,7 +23288,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23338,7 +23338,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R439">
         <v>9</v>
@@ -23388,7 +23388,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23438,7 +23438,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R441">
         <v>4</v>
@@ -23488,7 +23488,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23538,7 +23538,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R443">
         <v>2</v>
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23635,7 +23635,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23685,7 +23685,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R446">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23832,7 +23832,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R449">
         <v>19</v>
@@ -23885,7 +23885,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R450">
         <v>19</v>
@@ -23938,7 +23938,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R451">
         <v>12</v>
@@ -23988,7 +23988,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24038,7 +24038,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R453">
         <v>16</v>
@@ -24091,7 +24091,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24188,7 +24188,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24238,7 +24238,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R457">
         <v>24</v>
@@ -24291,7 +24291,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24341,7 +24341,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R459">
         <v>2</v>
@@ -24391,7 +24391,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24441,7 +24441,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R461">
         <v>3</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24541,7 +24541,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24588,7 +24588,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24635,7 +24635,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24732,7 +24732,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R467">
         <v>6</v>
@@ -24782,7 +24782,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24829,7 +24829,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24876,7 +24876,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24923,7 +24923,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24973,7 +24973,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R472">
         <v>11</v>
@@ -25023,7 +25023,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25067,7 +25067,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25114,7 +25114,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25161,7 +25161,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25211,7 +25211,7 @@
         <v>1</v>
       </c>
       <c r="Q477">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R477">
         <v>21</v>
@@ -25264,7 +25264,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25314,7 +25314,7 @@
         <v>1</v>
       </c>
       <c r="Q479">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R479">
         <v>21</v>
@@ -25367,7 +25367,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25417,7 +25417,7 @@
         <v>1</v>
       </c>
       <c r="Q481">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R481">
         <v>10</v>
@@ -25467,7 +25467,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25517,7 +25517,7 @@
         <v>1</v>
       </c>
       <c r="Q483">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R483">
         <v>17</v>
@@ -25570,7 +25570,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25664,7 +25664,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25711,7 +25711,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25758,7 +25758,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25805,7 +25805,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25899,7 +25899,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25946,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25993,7 +25993,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26043,7 +26043,7 @@
         <v>1</v>
       </c>
       <c r="Q494">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R494">
         <v>33</v>
@@ -26093,7 +26093,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26140,7 +26140,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26187,7 +26187,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26234,7 +26234,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26284,7 +26284,7 @@
         <v>1</v>
       </c>
       <c r="Q499">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R499">
         <v>0</v>
@@ -26337,7 +26337,7 @@
         <v>1</v>
       </c>
       <c r="Q500">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R500">
         <v>15</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26434,7 +26434,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26481,7 +26481,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26531,7 +26531,7 @@
         <v>1</v>
       </c>
       <c r="Q504">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R504">
         <v>28</v>
@@ -26584,7 +26584,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26634,7 +26634,7 @@
         <v>1</v>
       </c>
       <c r="Q506">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R506">
         <v>13</v>
@@ -26687,7 +26687,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26737,7 +26737,7 @@
         <v>1</v>
       </c>
       <c r="Q508">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R508">
         <v>19</v>
@@ -26787,7 +26787,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26834,7 +26834,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26881,7 +26881,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -26931,7 +26931,7 @@
         <v>1</v>
       </c>
       <c r="Q512">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R512">
         <v>26</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -27025,7 +27025,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -27072,7 +27072,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -27119,7 +27119,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -27169,7 +27169,7 @@
         <v>1</v>
       </c>
       <c r="Q517">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R517">
         <v>21</v>
@@ -27222,7 +27222,7 @@
         <v>1</v>
       </c>
       <c r="Q518">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R518">
         <v>13</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="Q519">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="520" spans="1:18">
@@ -27325,7 +27325,7 @@
         <v>1</v>
       </c>
       <c r="Q520">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R520">
         <v>26</v>
@@ -27378,7 +27378,7 @@
         <v>0</v>
       </c>
       <c r="Q521">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -27428,7 +27428,7 @@
         <v>1</v>
       </c>
       <c r="Q522">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R522">
         <v>7</v>
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="Q523">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="524" spans="1:18">
@@ -27528,7 +27528,7 @@
         <v>1</v>
       </c>
       <c r="Q524">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R524">
         <v>17</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="Q525">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="526" spans="1:18">
@@ -27628,7 +27628,7 @@
         <v>1</v>
       </c>
       <c r="Q526">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R526">
         <v>4</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="Q527">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="528" spans="1:18">
@@ -27725,7 +27725,7 @@
         <v>0</v>
       </c>
       <c r="Q528">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="529" spans="1:18">
@@ -27778,7 +27778,7 @@
         <v>1</v>
       </c>
       <c r="Q529">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R529">
         <v>16</v>
@@ -27828,7 +27828,7 @@
         <v>0</v>
       </c>
       <c r="Q530">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="531" spans="1:18">
@@ -27878,7 +27878,7 @@
         <v>1</v>
       </c>
       <c r="Q531">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R531">
         <v>5</v>
@@ -27931,7 +27931,7 @@
         <v>0</v>
       </c>
       <c r="Q532">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="533" spans="1:18">
@@ -27981,7 +27981,7 @@
         <v>1</v>
       </c>
       <c r="Q533">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R533">
         <v>17</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="Q534">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="535" spans="1:18">
@@ -28075,7 +28075,7 @@
         <v>0</v>
       </c>
       <c r="Q535">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="536" spans="1:18">
@@ -28122,7 +28122,7 @@
         <v>0</v>
       </c>
       <c r="Q536">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="537" spans="1:18">
@@ -28169,7 +28169,7 @@
         <v>0</v>
       </c>
       <c r="Q537">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="538" spans="1:18">
@@ -28219,7 +28219,7 @@
         <v>0</v>
       </c>
       <c r="Q538">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="539" spans="1:18">
@@ -28269,7 +28269,7 @@
         <v>1</v>
       </c>
       <c r="Q539">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R539">
         <v>9</v>
@@ -28319,7 +28319,7 @@
         <v>0</v>
       </c>
       <c r="Q540">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="541" spans="1:18">
@@ -28366,7 +28366,7 @@
         <v>0</v>
       </c>
       <c r="Q541">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="542" spans="1:18">
@@ -28416,7 +28416,7 @@
         <v>1</v>
       </c>
       <c r="Q542">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R542">
         <v>0</v>
@@ -28469,7 +28469,7 @@
         <v>0</v>
       </c>
       <c r="Q543">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="544" spans="1:18">
@@ -28516,7 +28516,7 @@
         <v>0</v>
       </c>
       <c r="Q544">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="545" spans="1:18">
@@ -28563,7 +28563,7 @@
         <v>0</v>
       </c>
       <c r="Q545">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="546" spans="1:18">
@@ -28610,7 +28610,7 @@
         <v>0</v>
       </c>
       <c r="Q546">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="547" spans="1:18">
@@ -28657,7 +28657,7 @@
         <v>0</v>
       </c>
       <c r="Q547">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="548" spans="1:18">
@@ -28704,7 +28704,7 @@
         <v>0</v>
       </c>
       <c r="Q548">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="549" spans="1:18">
@@ -28754,7 +28754,7 @@
         <v>1</v>
       </c>
       <c r="Q549">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R549">
         <v>23</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="Q550">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="551" spans="1:18">
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="Q551">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="552" spans="1:18">
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="Q552">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="553" spans="1:18">
@@ -28948,7 +28948,7 @@
         <v>1</v>
       </c>
       <c r="Q553">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R553">
         <v>15</v>
@@ -29001,7 +29001,7 @@
         <v>1</v>
       </c>
       <c r="Q554">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="R554">
         <v>21</v>
@@ -29054,7 +29054,7 @@
         <v>0</v>
       </c>
       <c r="Q555">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="556" spans="1:18">
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="Q556">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="557" spans="1:18">
@@ -29154,7 +29154,7 @@
         <v>1</v>
       </c>
       <c r="Q557">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="R557">
         <v>4</v>
@@ -29204,7 +29204,7 @@
         <v>0</v>
       </c>
       <c r="Q558">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="559" spans="1:18">
@@ -29254,7 +29254,7 @@
         <v>1</v>
       </c>
       <c r="Q559">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="R559">
         <v>16</v>
@@ -29307,7 +29307,7 @@
         <v>0</v>
       </c>
       <c r="Q560">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="561" spans="1:18">
@@ -29354,7 +29354,7 @@
         <v>0</v>
       </c>
       <c r="Q561">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="562" spans="1:18">
@@ -29404,7 +29404,7 @@
         <v>0</v>
       </c>
       <c r="Q562">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="563" spans="1:18">
@@ -29451,7 +29451,7 @@
         <v>0</v>
       </c>
       <c r="Q563">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="564" spans="1:18">
@@ -29498,7 +29498,7 @@
         <v>0</v>
       </c>
       <c r="Q564">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="565" spans="1:18">
@@ -29545,7 +29545,7 @@
         <v>0</v>
       </c>
       <c r="Q565">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="566" spans="1:18">
@@ -29595,7 +29595,7 @@
         <v>1</v>
       </c>
       <c r="Q566">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="R566">
         <v>20</v>
@@ -29642,7 +29642,7 @@
         <v>0</v>
       </c>
       <c r="Q567">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="568" spans="1:18">
@@ -29689,7 +29689,7 @@
         <v>0</v>
       </c>
       <c r="Q568">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="569" spans="1:18">
@@ -29739,7 +29739,7 @@
         <v>0</v>
       </c>
       <c r="Q569">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="570" spans="1:18">
@@ -29786,7 +29786,7 @@
         <v>0</v>
       </c>
       <c r="Q570">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="571" spans="1:18">
@@ -29833,7 +29833,7 @@
         <v>0</v>
       </c>
       <c r="Q571">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="572" spans="1:18">
@@ -29880,7 +29880,7 @@
         <v>0</v>
       </c>
       <c r="Q572">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="573" spans="1:18">
@@ -29927,7 +29927,7 @@
         <v>0</v>
       </c>
       <c r="Q573">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="574" spans="1:18">
@@ -29974,7 +29974,7 @@
         <v>0</v>
       </c>
       <c r="Q574">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="575" spans="1:18">
@@ -30024,7 +30024,7 @@
         <v>1</v>
       </c>
       <c r="Q575">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="R575">
         <v>25</v>
@@ -30077,7 +30077,7 @@
         <v>0</v>
       </c>
       <c r="Q576">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="577" spans="1:18">
@@ -30127,7 +30127,7 @@
         <v>1</v>
       </c>
       <c r="Q577">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="R577">
         <v>2</v>
@@ -30171,10 +30171,10 @@
         <v>1</v>
       </c>
       <c r="P578" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q578">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="579" spans="1:18">
@@ -30215,7 +30215,7 @@
         <v>0</v>
       </c>
       <c r="Q579">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
